--- a/Backup/Products.xlsx
+++ b/Backup/Products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,21 @@
           <t>Last_Updated</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>IsDeleted</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PAMP001</t>
+          <t>PAMP01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pampers Premium Care</t>
+          <t>Pamper</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,481 +493,94 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F2" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-02-20 18:13:19</t>
-        </is>
+          <t>2025-03-22 16:19:48</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PAMP003</t>
+          <t>PAMP02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Huggies Ultra Soft</t>
+          <t>Pamper</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Candyland</t>
+          <t>Bonapapa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F3" t="n">
-        <v>1800</v>
+        <v>100000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-02-20 18:13:19</t>
-        </is>
+          <t>2025-03-22 16:20:41</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PAMP0000</t>
+          <t>CAND01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BONpAMP</t>
+          <t>Candy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bonapapa</t>
+          <t>Candyland</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>Nil</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>500</v>
       </c>
       <c r="F4" t="n">
-        <v>99</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-03-01 06:46:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CAND234</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Papper</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Candyland</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Nil</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>223</v>
-      </c>
-      <c r="F5" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-03-01 06:51:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PAMP0234</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SAD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SAFD</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>44</v>
-      </c>
-      <c r="F6" t="n">
-        <v>65443</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-03-01 06:55:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PMME3455</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DFXF</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SDFF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>334</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6644</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-03-01 06:57:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PAMR4</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SFSDFR</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DGFDSGR</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>3445</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2025-03-01 07:01:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PAMR2234</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BABY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bonapapa</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>354</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5646</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2025-03-01 07:08:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PMP234</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DFSD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bonapapa</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>XXL</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>223</v>
-      </c>
-      <c r="F10" t="n">
-        <v>545466</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-03-01 07:12:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PMP2445</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SDFFG</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bonapapa</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>XXL</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>34</v>
-      </c>
-      <c r="F11" t="n">
-        <v>453354</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-03-01 07:15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PMP334</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PER</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bonapapa</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>44</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4444</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2025-03-01 07:28:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PMF33</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DFS</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bonapapa</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>344</v>
-      </c>
-      <c r="F13" t="n">
-        <v>53455</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-03-01 07:29:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CAND355</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BISCUIT</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Candyland</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Nil</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>32423</v>
-      </c>
-      <c r="F14" t="n">
-        <v>23432</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025-03-01 07:32:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PAMP234</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SDFFFS</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bonapapa</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>444</v>
-      </c>
-      <c r="F15" t="n">
-        <v>322332</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-03-01 07:36:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PAMP2340</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SAD</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Bonapapa</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>44</v>
-      </c>
-      <c r="F16" t="n">
-        <v>65443</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2025-03-01 09:03:49</t>
-        </is>
+          <t>2025-03-22 16:21:13</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
